--- a/LGC_Motiv_results/study1/nutrition/niacine_scoring.xlsx
+++ b/LGC_Motiv_results/study1/nutrition/niacine_scoring.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
-    <t>Niacine par semaine [ug]</t>
+    <t>Niacine par semaine [μg]</t>
   </si>
   <si>
     <t>CID</t>
@@ -630,7 +630,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>187.52762</v>
+        <v>177981.225</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -638,7 +638,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>95.72605</v>
+        <v>94381.60000000001</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -646,7 +646,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>70.46501749999999</v>
+        <v>67700.52499999999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>87.859235</v>
+        <v>71081.57500000001</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>147.104145</v>
+        <v>137804.5</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -670,7 +670,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>91.51027500000001</v>
+        <v>82495.575</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>136.90562</v>
+        <v>126552.5</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -686,7 +686,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>96.89313500000003</v>
+        <v>90354.59999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -694,7 +694,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>214.73005</v>
+        <v>205466.375</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -702,7 +702,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>147.674835</v>
+        <v>137023.25</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -710,7 +710,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>112.60519</v>
+        <v>93649.575</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -718,7 +718,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>112.069125</v>
+        <v>106441.325</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -726,7 +726,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>81.92928000000001</v>
+        <v>89049.35000000001</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>37.851245</v>
+        <v>36431.10000000001</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -742,7 +742,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>142.94905</v>
+        <v>141812.125</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -750,7 +750,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>178.38583</v>
+        <v>140692.5</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -758,7 +758,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>155.3650675</v>
+        <v>140565.15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -766,7 +766,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>214.00478</v>
+        <v>205072.9</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -774,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>127.824475</v>
+        <v>132757.75</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -782,7 +782,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>63.001</v>
+        <v>50431.05</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -790,7 +790,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>121.38245</v>
+        <v>88933.47499999999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -798,7 +798,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>76.45480000000001</v>
+        <v>66639.95</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -806,7 +806,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>171.74698</v>
+        <v>147296.775</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -814,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>109.38337</v>
+        <v>105460.825</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -822,7 +822,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>73.50253000000001</v>
+        <v>62991.225</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -830,7 +830,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>86.89523000000003</v>
+        <v>80606.5</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -838,7 +838,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>93.86574250000001</v>
+        <v>75746.02499999999</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>132.71295</v>
+        <v>122639.475</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -854,7 +854,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>156.7614675</v>
+        <v>131828.9</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -862,7 +862,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>149.938045</v>
+        <v>130056.725</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -870,7 +870,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>54.82978</v>
+        <v>54337.125</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -878,7 +878,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>124.561075</v>
+        <v>100279.95</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -886,7 +886,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>82.24199999999999</v>
+        <v>70846.47500000001</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -894,7 +894,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>147.111075</v>
+        <v>124616.225</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -902,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>46.01545500000001</v>
+        <v>39206.675</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -910,7 +910,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>161.8681175</v>
+        <v>178707.775</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -918,7 +918,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>201.391675</v>
+        <v>188456.7</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -926,7 +926,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>103.39702</v>
+        <v>100736.925</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -934,7 +934,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>67.8261</v>
+        <v>66083.325</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -942,7 +942,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>89.503725</v>
+        <v>85475.97499999999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -950,7 +950,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>101.901425</v>
+        <v>86002.47500000001</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -958,7 +958,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>117.896675</v>
+        <v>117164.875</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -966,7 +966,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>106.0237175</v>
+        <v>103308.975</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -974,7 +974,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>98.874605</v>
+        <v>101879.75</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -982,7 +982,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>119.04865</v>
+        <v>99280.92499999999</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -990,7 +990,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>120.44235</v>
+        <v>120040.225</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -998,7 +998,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>27.526425</v>
+        <v>18657.625</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>146.432705</v>
+        <v>150993.15</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>35.66537</v>
+        <v>36602.4</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>77.65438499999999</v>
+        <v>73274.20000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>94.6245675</v>
+        <v>92313.54999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>63.58654000000001</v>
+        <v>48811.52499999999</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>142.38552</v>
+        <v>120925.35</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>125.817635</v>
+        <v>128656.25</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>68.34828</v>
+        <v>64189.575</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>93.37219250000001</v>
+        <v>88626.35000000001</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>181.93823</v>
+        <v>161753.65</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>69.730655</v>
+        <v>62874.77499999999</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>44.978255</v>
+        <v>39198.625</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>107.3227</v>
+        <v>95701.52499999999</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>108.306855</v>
+        <v>105590.65</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>76.03002500000001</v>
+        <v>69008.85000000001</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>44.11875</v>
+        <v>42016.625</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>69.46822000000002</v>
+        <v>66011.02499999999</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>65.789575</v>
+        <v>45632.925</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>108.309705</v>
+        <v>99751.32500000001</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>68.25456750000002</v>
+        <v>61738.15</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>64.112205</v>
+        <v>61422.6</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>52.67970000000001</v>
+        <v>49176.425</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>104.94948</v>
+        <v>97283.92499999999</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>121.998675</v>
+        <v>111093.85</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>65.42693</v>
+        <v>62099.85</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>80.77486999999999</v>
+        <v>78525.375</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>111.20082</v>
+        <v>111613.1</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>92.17519</v>
+        <v>76328.72500000001</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>160.667875</v>
+        <v>150102.075</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>81.2072</v>
+        <v>81209</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>155.225655</v>
+        <v>151451.4</v>
       </c>
     </row>
   </sheetData>
